--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\171207\Downloads\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\171207\Downloads\Desktop\Final year courseworks\Project Proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>START</t>
   </si>
@@ -92,21 +92,12 @@
     <t>Logistic regression algorithm implementation</t>
   </si>
   <si>
-    <t>Linear regression algorithm implementation</t>
-  </si>
-  <si>
     <t>Neural network algorithm implementation</t>
   </si>
   <si>
     <t>Convolutional neural network algorithm implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">PCA (Principal component analysis) implementation </t>
-  </si>
-  <si>
-    <t>SVC (Support vector classifier) algorithm implementation</t>
-  </si>
-  <si>
     <t>Presentation to supervisor</t>
   </si>
   <si>
@@ -138,6 +129,9 @@
   </si>
   <si>
     <t>Final project report submission</t>
+  </si>
+  <si>
+    <t>ResNet18 algorithm implementation</t>
   </si>
 </sst>
 </file>
@@ -403,9 +397,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,11 +433,82 @@
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -745,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:LT42"/>
+  <dimension ref="A2:LT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,345 +826,345 @@
       <c r="D3" s="2"/>
     </row>
     <row r="5" spans="1:332" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E5" s="23">
+      <c r="E5" s="35">
         <f>E6</f>
         <v>44099</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35">
         <f>K6</f>
         <v>44105</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35">
         <f>R6</f>
         <v>44112</v>
       </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23">
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35">
         <f>Y6</f>
         <v>44119</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23">
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35">
         <f>AE6</f>
         <v>44125</v>
       </c>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23">
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35">
         <f>AL6</f>
         <v>44132</v>
       </c>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23">
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35">
         <f>AP6</f>
         <v>44136</v>
       </c>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23">
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35">
         <f>AT6</f>
         <v>44140</v>
       </c>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23">
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35">
         <f>AZ6</f>
         <v>44146</v>
       </c>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23">
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35">
         <f>BG6</f>
         <v>44153</v>
       </c>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23">
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35">
         <f>BN6</f>
         <v>44160</v>
       </c>
-      <c r="BO5" s="23"/>
-      <c r="BP5" s="23"/>
-      <c r="BQ5" s="23"/>
-      <c r="BR5" s="23"/>
-      <c r="BS5" s="23"/>
-      <c r="BT5" s="23">
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35">
         <f>BT6</f>
         <v>44166</v>
       </c>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="23"/>
-      <c r="BW5" s="23"/>
-      <c r="BX5" s="23"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="23"/>
-      <c r="CA5" s="23">
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="35"/>
+      <c r="BY5" s="35"/>
+      <c r="BZ5" s="35"/>
+      <c r="CA5" s="35">
         <f>CA6</f>
         <v>44173</v>
       </c>
-      <c r="CB5" s="23"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="23"/>
-      <c r="CE5" s="23">
+      <c r="CB5" s="35"/>
+      <c r="CC5" s="35"/>
+      <c r="CD5" s="35"/>
+      <c r="CE5" s="35">
         <f>CE6</f>
         <v>44177</v>
       </c>
-      <c r="CF5" s="23"/>
-      <c r="CG5" s="23"/>
-      <c r="CH5" s="23"/>
-      <c r="CI5" s="23">
+      <c r="CF5" s="35"/>
+      <c r="CG5" s="35"/>
+      <c r="CH5" s="35"/>
+      <c r="CI5" s="35">
         <f>CI6</f>
         <v>44181</v>
       </c>
-      <c r="CJ5" s="23"/>
-      <c r="CK5" s="23"/>
-      <c r="CL5" s="23"/>
-      <c r="CM5" s="23"/>
-      <c r="CN5" s="23"/>
-      <c r="CO5" s="23">
+      <c r="CJ5" s="35"/>
+      <c r="CK5" s="35"/>
+      <c r="CL5" s="35"/>
+      <c r="CM5" s="35"/>
+      <c r="CN5" s="35"/>
+      <c r="CO5" s="35">
         <f>CO6</f>
         <v>44187</v>
       </c>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
-      <c r="CS5" s="23"/>
-      <c r="CT5" s="23"/>
-      <c r="CU5" s="23"/>
-      <c r="CV5" s="23">
+      <c r="CP5" s="35"/>
+      <c r="CQ5" s="35"/>
+      <c r="CR5" s="35"/>
+      <c r="CS5" s="35"/>
+      <c r="CT5" s="35"/>
+      <c r="CU5" s="35"/>
+      <c r="CV5" s="35">
         <f>CV6</f>
         <v>44194</v>
       </c>
-      <c r="CW5" s="23"/>
-      <c r="CX5" s="23"/>
-      <c r="CY5" s="23"/>
-      <c r="CZ5" s="23"/>
-      <c r="DA5" s="23"/>
-      <c r="DB5" s="23"/>
-      <c r="DC5" s="23">
+      <c r="CW5" s="35"/>
+      <c r="CX5" s="35"/>
+      <c r="CY5" s="35"/>
+      <c r="CZ5" s="35"/>
+      <c r="DA5" s="35"/>
+      <c r="DB5" s="35"/>
+      <c r="DC5" s="35">
         <f>DC6</f>
         <v>44201</v>
       </c>
-      <c r="DD5" s="23"/>
-      <c r="DE5" s="23"/>
-      <c r="DF5" s="23"/>
-      <c r="DG5" s="23"/>
-      <c r="DH5" s="23"/>
-      <c r="DI5" s="23">
+      <c r="DD5" s="35"/>
+      <c r="DE5" s="35"/>
+      <c r="DF5" s="35"/>
+      <c r="DG5" s="35"/>
+      <c r="DH5" s="35"/>
+      <c r="DI5" s="35">
         <f>DI6</f>
         <v>44207</v>
       </c>
-      <c r="DJ5" s="23"/>
-      <c r="DK5" s="23"/>
-      <c r="DL5" s="23"/>
-      <c r="DM5" s="23"/>
-      <c r="DN5" s="23"/>
-      <c r="DO5" s="23"/>
-      <c r="DP5" s="23">
+      <c r="DJ5" s="35"/>
+      <c r="DK5" s="35"/>
+      <c r="DL5" s="35"/>
+      <c r="DM5" s="35"/>
+      <c r="DN5" s="35"/>
+      <c r="DO5" s="35"/>
+      <c r="DP5" s="35">
         <f>DP6</f>
         <v>44214</v>
       </c>
-      <c r="DQ5" s="23"/>
-      <c r="DR5" s="23"/>
-      <c r="DS5" s="23"/>
-      <c r="DT5" s="23">
+      <c r="DQ5" s="35"/>
+      <c r="DR5" s="35"/>
+      <c r="DS5" s="35"/>
+      <c r="DT5" s="35">
         <f>DT6</f>
         <v>44218</v>
       </c>
-      <c r="DU5" s="23"/>
-      <c r="DV5" s="23"/>
-      <c r="DW5" s="23"/>
-      <c r="DX5" s="23">
+      <c r="DU5" s="35"/>
+      <c r="DV5" s="35"/>
+      <c r="DW5" s="35"/>
+      <c r="DX5" s="35">
         <f>DX6</f>
         <v>44222</v>
       </c>
-      <c r="DY5" s="23"/>
-      <c r="DZ5" s="23"/>
-      <c r="EA5" s="23"/>
-      <c r="EB5" s="23"/>
-      <c r="EC5" s="23"/>
-      <c r="ED5" s="23">
+      <c r="DY5" s="35"/>
+      <c r="DZ5" s="35"/>
+      <c r="EA5" s="35"/>
+      <c r="EB5" s="35"/>
+      <c r="EC5" s="35"/>
+      <c r="ED5" s="35">
         <f>ED6</f>
         <v>44228</v>
       </c>
-      <c r="EE5" s="23"/>
-      <c r="EF5" s="23"/>
-      <c r="EG5" s="23"/>
-      <c r="EH5" s="23"/>
-      <c r="EI5" s="23"/>
-      <c r="EJ5" s="23"/>
-      <c r="EK5" s="23">
+      <c r="EE5" s="35"/>
+      <c r="EF5" s="35"/>
+      <c r="EG5" s="35"/>
+      <c r="EH5" s="35"/>
+      <c r="EI5" s="35"/>
+      <c r="EJ5" s="35"/>
+      <c r="EK5" s="35">
         <f>EK6</f>
         <v>44235</v>
       </c>
-      <c r="EL5" s="23"/>
-      <c r="EM5" s="23"/>
-      <c r="EN5" s="23"/>
-      <c r="EO5" s="23"/>
-      <c r="EP5" s="23"/>
-      <c r="EQ5" s="23"/>
-      <c r="ER5" s="23">
+      <c r="EL5" s="35"/>
+      <c r="EM5" s="35"/>
+      <c r="EN5" s="35"/>
+      <c r="EO5" s="35"/>
+      <c r="EP5" s="35"/>
+      <c r="EQ5" s="35"/>
+      <c r="ER5" s="35">
         <f>ER6</f>
         <v>44242</v>
       </c>
-      <c r="ES5" s="23"/>
-      <c r="ET5" s="23"/>
-      <c r="EU5" s="23"/>
-      <c r="EV5" s="23"/>
-      <c r="EW5" s="23"/>
-      <c r="EX5" s="23">
+      <c r="ES5" s="35"/>
+      <c r="ET5" s="35"/>
+      <c r="EU5" s="35"/>
+      <c r="EV5" s="35"/>
+      <c r="EW5" s="35"/>
+      <c r="EX5" s="35">
         <f>EX6</f>
         <v>44248</v>
       </c>
-      <c r="EY5" s="23"/>
-      <c r="EZ5" s="23"/>
-      <c r="FA5" s="23"/>
-      <c r="FB5" s="23"/>
-      <c r="FC5" s="23"/>
-      <c r="FD5" s="23"/>
-      <c r="FE5" s="23">
+      <c r="EY5" s="35"/>
+      <c r="EZ5" s="35"/>
+      <c r="FA5" s="35"/>
+      <c r="FB5" s="35"/>
+      <c r="FC5" s="35"/>
+      <c r="FD5" s="35"/>
+      <c r="FE5" s="35">
         <f>FE6</f>
         <v>44255</v>
       </c>
-      <c r="FF5" s="23"/>
-      <c r="FG5" s="23"/>
-      <c r="FH5" s="23"/>
-      <c r="FI5" s="23">
+      <c r="FF5" s="35"/>
+      <c r="FG5" s="35"/>
+      <c r="FH5" s="35"/>
+      <c r="FI5" s="35">
         <f>FI6</f>
         <v>44259</v>
       </c>
-      <c r="FJ5" s="23"/>
-      <c r="FK5" s="23"/>
-      <c r="FL5" s="23"/>
-      <c r="FM5" s="23">
+      <c r="FJ5" s="35"/>
+      <c r="FK5" s="35"/>
+      <c r="FL5" s="35"/>
+      <c r="FM5" s="35">
         <f>FM6</f>
         <v>44263</v>
       </c>
-      <c r="FN5" s="23"/>
-      <c r="FO5" s="23"/>
-      <c r="FP5" s="23"/>
-      <c r="FQ5" s="23"/>
-      <c r="FR5" s="23"/>
-      <c r="FS5" s="23">
+      <c r="FN5" s="35"/>
+      <c r="FO5" s="35"/>
+      <c r="FP5" s="35"/>
+      <c r="FQ5" s="35"/>
+      <c r="FR5" s="35"/>
+      <c r="FS5" s="35">
         <f>FS6</f>
         <v>44269</v>
       </c>
-      <c r="FT5" s="23"/>
-      <c r="FU5" s="23"/>
-      <c r="FV5" s="23"/>
-      <c r="FW5" s="23"/>
-      <c r="FX5" s="23"/>
-      <c r="FY5" s="23"/>
-      <c r="FZ5" s="23">
+      <c r="FT5" s="35"/>
+      <c r="FU5" s="35"/>
+      <c r="FV5" s="35"/>
+      <c r="FW5" s="35"/>
+      <c r="FX5" s="35"/>
+      <c r="FY5" s="35"/>
+      <c r="FZ5" s="35">
         <f>FZ6</f>
         <v>44276</v>
       </c>
-      <c r="GA5" s="23"/>
-      <c r="GB5" s="23"/>
-      <c r="GC5" s="23"/>
-      <c r="GD5" s="23"/>
-      <c r="GE5" s="23"/>
-      <c r="GF5" s="23"/>
-      <c r="GG5" s="23">
+      <c r="GA5" s="35"/>
+      <c r="GB5" s="35"/>
+      <c r="GC5" s="35"/>
+      <c r="GD5" s="35"/>
+      <c r="GE5" s="35"/>
+      <c r="GF5" s="35"/>
+      <c r="GG5" s="35">
         <f>GG6</f>
         <v>44283</v>
       </c>
-      <c r="GH5" s="23"/>
-      <c r="GI5" s="23"/>
-      <c r="GJ5" s="23"/>
-      <c r="GK5" s="23"/>
-      <c r="GL5" s="23"/>
-      <c r="GM5" s="23">
+      <c r="GH5" s="35"/>
+      <c r="GI5" s="35"/>
+      <c r="GJ5" s="35"/>
+      <c r="GK5" s="35"/>
+      <c r="GL5" s="35"/>
+      <c r="GM5" s="35">
         <f>GM6</f>
         <v>44289</v>
       </c>
-      <c r="GN5" s="23"/>
-      <c r="GO5" s="23"/>
-      <c r="GP5" s="23"/>
-      <c r="GQ5" s="23"/>
-      <c r="GR5" s="23"/>
-      <c r="GS5" s="23"/>
-      <c r="GT5" s="23">
+      <c r="GN5" s="35"/>
+      <c r="GO5" s="35"/>
+      <c r="GP5" s="35"/>
+      <c r="GQ5" s="35"/>
+      <c r="GR5" s="35"/>
+      <c r="GS5" s="35"/>
+      <c r="GT5" s="35">
         <f>GT6</f>
         <v>44296</v>
       </c>
-      <c r="GU5" s="23"/>
-      <c r="GV5" s="23"/>
-      <c r="GW5" s="23"/>
-      <c r="GX5" s="23">
+      <c r="GU5" s="35"/>
+      <c r="GV5" s="35"/>
+      <c r="GW5" s="35"/>
+      <c r="GX5" s="35">
         <f>GX6</f>
         <v>44300</v>
       </c>
-      <c r="GY5" s="23"/>
-      <c r="GZ5" s="23"/>
-      <c r="HA5" s="23"/>
-      <c r="HB5" s="23">
+      <c r="GY5" s="35"/>
+      <c r="GZ5" s="35"/>
+      <c r="HA5" s="35"/>
+      <c r="HB5" s="35">
         <f>HB6</f>
         <v>44304</v>
       </c>
-      <c r="HC5" s="23"/>
-      <c r="HD5" s="23"/>
-      <c r="HE5" s="23"/>
-      <c r="HF5" s="23"/>
-      <c r="HG5" s="23"/>
-      <c r="HH5" s="23">
+      <c r="HC5" s="35"/>
+      <c r="HD5" s="35"/>
+      <c r="HE5" s="35"/>
+      <c r="HF5" s="35"/>
+      <c r="HG5" s="35"/>
+      <c r="HH5" s="35">
         <f>HH6</f>
         <v>44310</v>
       </c>
-      <c r="HI5" s="23"/>
-      <c r="HJ5" s="23"/>
-      <c r="HK5" s="23"/>
-      <c r="HL5" s="23"/>
-      <c r="HM5" s="23"/>
-      <c r="HN5" s="23"/>
-      <c r="HO5" s="23">
+      <c r="HI5" s="35"/>
+      <c r="HJ5" s="35"/>
+      <c r="HK5" s="35"/>
+      <c r="HL5" s="35"/>
+      <c r="HM5" s="35"/>
+      <c r="HN5" s="35"/>
+      <c r="HO5" s="35">
         <f>HO6</f>
         <v>44317</v>
       </c>
-      <c r="HP5" s="23"/>
-      <c r="HQ5" s="23"/>
-      <c r="HR5" s="23"/>
-      <c r="HS5" s="23"/>
-      <c r="HT5" s="23"/>
-      <c r="HU5" s="23"/>
+      <c r="HP5" s="35"/>
+      <c r="HQ5" s="35"/>
+      <c r="HR5" s="35"/>
+      <c r="HS5" s="35"/>
+      <c r="HT5" s="35"/>
+      <c r="HU5" s="35"/>
       <c r="HV5" s="22"/>
       <c r="HW5" s="22"/>
       <c r="HX5" s="22"/>
@@ -3013,10 +3075,10 @@
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>44099</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>44134</v>
       </c>
     </row>
@@ -3024,10 +3086,10 @@
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>44134</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>44141</v>
       </c>
     </row>
@@ -3035,10 +3097,10 @@
       <c r="A11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>44141</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>44155</v>
       </c>
     </row>
@@ -3046,10 +3108,10 @@
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>44155</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>44162</v>
       </c>
     </row>
@@ -3057,10 +3119,10 @@
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>44162</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>44168</v>
       </c>
     </row>
@@ -3068,10 +3130,10 @@
       <c r="A14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>44169</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>44169</v>
       </c>
     </row>
@@ -3079,17 +3141,17 @@
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:332" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>44177</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>44195</v>
       </c>
     </row>
@@ -3097,10 +3159,10 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>44183</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>44190</v>
       </c>
     </row>
@@ -3108,10 +3170,10 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>44193</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>44193</v>
       </c>
     </row>
@@ -3119,10 +3181,10 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>44194</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>44194</v>
       </c>
     </row>
@@ -3130,10 +3192,10 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>44195</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>44195</v>
       </c>
     </row>
@@ -3141,17 +3203,17 @@
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>44197</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>44225</v>
       </c>
     </row>
@@ -3159,10 +3221,10 @@
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>44211</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>44218</v>
       </c>
     </row>
@@ -3170,10 +3232,10 @@
       <c r="A24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>44218</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>44225</v>
       </c>
     </row>
@@ -3181,17 +3243,17 @@
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="30">
         <v>44232</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>44238</v>
       </c>
     </row>
@@ -3199,172 +3261,172 @@
       <c r="A27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31">
-        <v>44238</v>
-      </c>
-      <c r="C27" s="31">
-        <v>44242</v>
+      <c r="B27" s="30">
+        <v>44243</v>
+      </c>
+      <c r="C27" s="30">
+        <v>44245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="31">
-        <v>44243</v>
-      </c>
-      <c r="C28" s="31">
-        <v>44245</v>
+      <c r="B28" s="30">
+        <v>44246</v>
+      </c>
+      <c r="C28" s="30">
+        <v>44252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="31">
-        <v>44246</v>
-      </c>
-      <c r="C29" s="31">
-        <v>44252</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="30">
+        <v>44253</v>
+      </c>
+      <c r="C29" s="30">
+        <v>44258</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="30">
+        <v>44262</v>
+      </c>
+      <c r="C30" s="30">
+        <v>44262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="31">
-        <v>44253</v>
-      </c>
-      <c r="C30" s="31">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="31">
-        <v>44258</v>
-      </c>
-      <c r="C31" s="31">
-        <v>44261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="B32" s="32">
+        <v>44268</v>
+      </c>
+      <c r="C32" s="32">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="31">
-        <v>44262</v>
-      </c>
-      <c r="C32" s="31">
-        <v>44262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="32">
+        <v>44271</v>
+      </c>
+      <c r="C33" s="32">
+        <v>44274</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="33">
-        <v>44268</v>
-      </c>
-      <c r="C34" s="33">
-        <v>44270</v>
+        <v>28</v>
+      </c>
+      <c r="B34" s="32">
+        <v>44275</v>
+      </c>
+      <c r="C34" s="32">
+        <v>44284</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="32">
+        <v>44284</v>
+      </c>
+      <c r="C35" s="32">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="33">
-        <v>44271</v>
-      </c>
-      <c r="C35" s="33">
-        <v>44274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="33">
-        <v>44275</v>
-      </c>
-      <c r="C36" s="33">
-        <v>44284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="B37" s="34">
+        <v>44289</v>
+      </c>
+      <c r="C37" s="34">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="33">
-        <v>44284</v>
-      </c>
-      <c r="C37" s="33">
+      <c r="B38" s="34">
         <v>44290</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="34">
+        <v>44316</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="35">
-        <v>44289</v>
-      </c>
-      <c r="C39" s="35">
-        <v>44289</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="34">
+        <v>44290</v>
+      </c>
+      <c r="C39" s="34">
+        <v>44312</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="35">
-        <v>44290</v>
-      </c>
-      <c r="C40" s="35">
-        <v>44316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="35">
-        <v>44290</v>
-      </c>
-      <c r="C41" s="35">
-        <v>44312</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="35">
+        <v>34</v>
+      </c>
+      <c r="B40" s="34">
         <v>44317</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C40" s="34">
         <v>44317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="FZ5:GF5"/>
+    <mergeCell ref="GG5:GL5"/>
+    <mergeCell ref="EX5:FD5"/>
+    <mergeCell ref="FE5:FH5"/>
+    <mergeCell ref="FI5:FL5"/>
+    <mergeCell ref="FM5:FR5"/>
+    <mergeCell ref="FS5:FY5"/>
+    <mergeCell ref="DT5:DW5"/>
+    <mergeCell ref="DX5:EC5"/>
+    <mergeCell ref="ED5:EJ5"/>
+    <mergeCell ref="EK5:EQ5"/>
+    <mergeCell ref="ER5:EW5"/>
+    <mergeCell ref="CO5:CU5"/>
+    <mergeCell ref="CV5:DB5"/>
+    <mergeCell ref="DC5:DH5"/>
+    <mergeCell ref="DI5:DO5"/>
+    <mergeCell ref="DP5:DS5"/>
+    <mergeCell ref="BN5:BS5"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="CA5:CD5"/>
+    <mergeCell ref="CE5:CH5"/>
+    <mergeCell ref="CI5:CN5"/>
     <mergeCell ref="HB5:HG5"/>
     <mergeCell ref="HH5:HN5"/>
     <mergeCell ref="HO5:HU5"/>
@@ -3381,32 +3443,30 @@
     <mergeCell ref="AT5:AY5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BN5:BS5"/>
-    <mergeCell ref="BT5:BZ5"/>
-    <mergeCell ref="CA5:CD5"/>
-    <mergeCell ref="CE5:CH5"/>
-    <mergeCell ref="CI5:CN5"/>
-    <mergeCell ref="CO5:CU5"/>
-    <mergeCell ref="CV5:DB5"/>
-    <mergeCell ref="DC5:DH5"/>
-    <mergeCell ref="DI5:DO5"/>
-    <mergeCell ref="DP5:DS5"/>
-    <mergeCell ref="DT5:DW5"/>
-    <mergeCell ref="DX5:EC5"/>
-    <mergeCell ref="ED5:EJ5"/>
-    <mergeCell ref="EK5:EQ5"/>
-    <mergeCell ref="ER5:EW5"/>
-    <mergeCell ref="EX5:FD5"/>
-    <mergeCell ref="FE5:FH5"/>
-    <mergeCell ref="FI5:FL5"/>
-    <mergeCell ref="FM5:FR5"/>
-    <mergeCell ref="FS5:FY5"/>
-    <mergeCell ref="FZ5:GF5"/>
-    <mergeCell ref="GG5:GL5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:HO42">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="E8:HO26">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(E$6&gt;=$B8,E$6&lt;=$C8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:HO30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(E$6&gt;=$B27,E$6&lt;=$C27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:HO27">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(E$6&gt;=#REF!,E$6&lt;=#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:HO42">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(E$6&gt;=$B30,E$6&lt;=$C30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:HO31">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND(E$6&gt;=#REF!,E$6&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
